--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,225 +46,216 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
@@ -286,39 +274,39 @@
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -340,6 +328,9 @@
     <t>happy</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
@@ -349,9 +340,6 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -361,52 +349,46 @@
     <t>birthday</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>grandson</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>gift</t>
   </si>
   <si>
     <t>kids</t>
@@ -770,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -857,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -881,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -889,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -907,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>0.8602150537634409</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -931,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -939,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,16 +942,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -981,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8028169014084507</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,16 +992,16 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1039,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1081,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1089,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>0.6312769010043041</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>0.6037344398340249</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L9">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1181,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K10">
-        <v>0.5942028985507246</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1239,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7087378640776699</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>0.5278688524590164</v>
+        <v>0.578838174273859</v>
       </c>
       <c r="L11">
-        <v>644</v>
+        <v>279</v>
       </c>
       <c r="M11">
-        <v>644</v>
+        <v>279</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1281,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>576</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1289,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7027027027027027</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1307,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>0.4578313253012048</v>
+        <v>0.5459016393442623</v>
       </c>
       <c r="L12">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="M12">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6904761904761905</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>0.4525993883792049</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>179</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1407,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K14">
-        <v>0.4497354497354497</v>
+        <v>0.4617737003058104</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>104</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6218487394957983</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>0.4339622641509434</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1481,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6144578313253012</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1507,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.4</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1539,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5681159420289855</v>
       </c>
       <c r="C17">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D17">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1557,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0.3661971830985916</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>0.98</v>
@@ -1581,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,31 +1589,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K18">
-        <v>0.3359375</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,10 +1624,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,31 +1639,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>0.2918918918918919</v>
+        <v>0.336</v>
       </c>
       <c r="L19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1689,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1707,31 +1689,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>0.2834008097165992</v>
+        <v>0.3046875</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5165876777251185</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C21">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1757,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K21">
-        <v>0.272</v>
+        <v>0.2956989247311828</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1781,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.509090909090909</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1807,31 +1789,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K22">
-        <v>0.252863436123348</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L22">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>848</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1839,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,31 +1839,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K23">
-        <v>0.246031746031746</v>
+        <v>0.2434094903339191</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4736842105263158</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1907,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>0.2051282051282051</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1931,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4693877551020408</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>0.1623376623376623</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1981,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.46875</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2007,31 +1989,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K26">
-        <v>0.1536458333333333</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="L26">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4566929133858268</v>
+        <v>0.4765625</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2057,31 +2039,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K27">
-        <v>0.1536312849162011</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>303</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4285714285714285</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2107,31 +2089,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K28">
-        <v>0.15</v>
+        <v>0.1433224755700326</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>136</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4126984126984127</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2157,31 +2139,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K29">
-        <v>0.1424731182795699</v>
+        <v>0.1394101876675603</v>
       </c>
       <c r="L29">
+        <v>52</v>
+      </c>
+      <c r="M29">
         <v>53</v>
       </c>
-      <c r="M29">
-        <v>55</v>
-      </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3934426229508197</v>
+        <v>0.45</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2207,31 +2189,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K30">
-        <v>0.09907120743034056</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="L30">
         <v>32</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>291</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2239,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3707865168539326</v>
+        <v>0.421875</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2257,31 +2239,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K31">
-        <v>0.0975609756097561</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N31">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2289,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3666666666666666</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2307,31 +2289,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K32">
-        <v>0.09504685408299866</v>
+        <v>0.1033557046979866</v>
       </c>
       <c r="L32">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,49 +2321,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3513513513513514</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>52</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33">
+        <v>0.08996539792387544</v>
+      </c>
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="D33">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>48</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33">
-        <v>0.08661417322834646</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
       <c r="M33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N33">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3465346534653465</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2407,31 +2389,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K34">
-        <v>0.08088235294117647</v>
+        <v>0.08360128617363344</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
       <c r="O34">
-        <v>0.42</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3432835820895522</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2457,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K35">
-        <v>0.08064516129032258</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>0.86</v>
@@ -2481,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2489,13 +2471,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.336734693877551</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2507,31 +2489,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K36">
-        <v>0.0738255033557047</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="O36">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>276</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2539,13 +2521,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3188405797101449</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2557,31 +2539,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K37">
-        <v>0.06613756613756613</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M37">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N37">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="O37">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>353</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2589,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3188405797101449</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2607,31 +2589,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K38">
-        <v>0.05702647657841141</v>
+        <v>0.06788511749347259</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N38">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="O38">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>463</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2639,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.315</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C39">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2657,31 +2639,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K39">
-        <v>0.05386416861826698</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O39">
-        <v>0.21</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>404</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2689,13 +2671,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3142857142857143</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2707,31 +2689,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K40">
-        <v>0.04617604617604618</v>
+        <v>0.0625</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="O40">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>661</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2739,13 +2721,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3076923076923077</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2757,31 +2739,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.04488330341113106</v>
+        <v>0.03159340659340659</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N41">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
       <c r="O41">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>532</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2789,13 +2771,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2967032967032967</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2807,31 +2789,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>64</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="L42">
-        <v>22</v>
-      </c>
-      <c r="M42">
-        <v>90</v>
-      </c>
-      <c r="N42">
-        <v>0.24</v>
-      </c>
-      <c r="O42">
-        <v>0.76</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>704</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2839,13 +2797,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.288659793814433</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2857,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>138</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2865,25 +2823,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.288659793814433</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2891,25 +2849,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.288659793814433</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>69</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2917,25 +2875,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2848101265822785</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>226</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2943,25 +2901,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2785714285714286</v>
+        <v>0.2633928571428572</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>101</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2969,25 +2927,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2680115273775216</v>
+        <v>0.26</v>
       </c>
       <c r="C48">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>254</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2995,13 +2953,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2644927536231884</v>
+        <v>0.2460732984293194</v>
       </c>
       <c r="C49">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3013,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3021,25 +2979,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2407407407407407</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3047,13 +3005,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2354694485842027</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C51">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D51">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>0.02</v>
@@ -3065,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>513</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3073,25 +3031,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2347826086956522</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C52">
         <v>27</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3099,25 +3057,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2215189873417721</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>246</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3125,25 +3083,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2185430463576159</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C54">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>354</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3151,25 +3109,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2146596858638743</v>
+        <v>0.2239467849223947</v>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3177,25 +3135,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2142857142857143</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3203,25 +3161,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2138728323699422</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3229,25 +3187,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2102803738317757</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3255,25 +3213,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2063492063492063</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F59">
-        <v>0.9299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3281,13 +3239,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.203125</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C60">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3299,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3307,25 +3265,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2</v>
+        <v>0.1628571428571429</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D61">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>104</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3333,25 +3291,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1974522292993631</v>
+        <v>0.1597796143250689</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>126</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3359,25 +3317,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.180327868852459</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3385,13 +3343,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1755725190839695</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="C64">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D64">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E64">
         <v>0.1</v>
@@ -3403,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3411,25 +3369,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1753246753246753</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3437,25 +3395,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1684782608695652</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3463,13 +3421,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1679389312977099</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3481,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3489,25 +3447,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1666666666666667</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F68">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3515,25 +3473,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1592356687898089</v>
+        <v>0.1331828442437923</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E69">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F69">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>132</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3541,25 +3499,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1538461538461539</v>
+        <v>0.1287625418060201</v>
       </c>
       <c r="C70">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D70">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E70">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F70">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>297</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3567,25 +3525,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1408839779005525</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="C71">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="F71">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>311</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3593,25 +3551,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1398963730569948</v>
+        <v>0.12</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E72">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F72">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>166</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3619,25 +3577,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1278026905829596</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="C73">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D73">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3645,25 +3603,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1270718232044199</v>
+        <v>0.1118210862619808</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E74">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="F74">
-        <v>0.8200000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>158</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3671,25 +3629,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.126984126984127</v>
+        <v>0.1030444964871194</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="F75">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>275</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3697,25 +3655,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1254480286738351</v>
+        <v>0.08864696734059098</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D76">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>244</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3723,25 +3681,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1005025125628141</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D77">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E77">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="F77">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>537</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3749,25 +3707,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09738717339667459</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="C78">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E78">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F78">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>380</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3775,25 +3733,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09273570324574962</v>
+        <v>0.06412825651302605</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F79">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>587</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3801,25 +3759,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08808290155440414</v>
+        <v>0.06378132118451026</v>
       </c>
       <c r="C80">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E80">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F80">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>704</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3827,155 +3785,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0831353919239905</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C81">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D81">
         <v>43</v>
       </c>
       <c r="E81">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="F81">
-        <v>0.8100000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.07428571428571429</v>
-      </c>
-      <c r="C82">
-        <v>26</v>
-      </c>
-      <c r="D82">
-        <v>27</v>
-      </c>
-      <c r="E82">
-        <v>0.04</v>
-      </c>
-      <c r="F82">
-        <v>0.96</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.06275303643724696</v>
-      </c>
-      <c r="C83">
-        <v>31</v>
-      </c>
-      <c r="D83">
-        <v>41</v>
-      </c>
-      <c r="E83">
-        <v>0.24</v>
-      </c>
-      <c r="F83">
-        <v>0.76</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.0576036866359447</v>
-      </c>
-      <c r="C84">
-        <v>25</v>
-      </c>
-      <c r="D84">
-        <v>38</v>
-      </c>
-      <c r="E84">
-        <v>0.34</v>
-      </c>
-      <c r="F84">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.04845814977973568</v>
-      </c>
-      <c r="C85">
-        <v>22</v>
-      </c>
-      <c r="D85">
-        <v>37</v>
-      </c>
-      <c r="E85">
-        <v>0.41</v>
-      </c>
-      <c r="F85">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.04148148148148148</v>
-      </c>
-      <c r="C86">
-        <v>28</v>
-      </c>
-      <c r="D86">
-        <v>45</v>
-      </c>
-      <c r="E86">
-        <v>0.38</v>
-      </c>
-      <c r="F86">
-        <v>0.62</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
